--- a/DMS-Test-Result.xlsx
+++ b/DMS-Test-Result.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwony/Documents/GitHub/CloudFormation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E02834-5777-7549-8557-673937053D54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441345D0-AD55-9B40-B618-1090B2EE5BA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{E807D598-975E-854F-9140-5D8B89E00547}"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{E807D598-975E-854F-9140-5D8B89E00547}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Detail Log" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Detail Log" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="228">
   <si>
     <t>2020-07-23T13:15:08.000+09:00</t>
   </si>
@@ -66,36 +68,6 @@
     <t>2020-07-23T04:23:36 [TARGET_LOAD ]I: Load finished for table 'SOE'.'ORDER_ITEMS' (Id = 3). 7080325 rows received. 0 rows skipped. Volume transferred 5053700296. (streamcomponent.c:3805)</t>
   </si>
   <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>orders</t>
-  </si>
-  <si>
-    <t>order_items</t>
-  </si>
-  <si>
-    <t>4min 49sec</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>8min 28sec</t>
-  </si>
-  <si>
     <t>localhost.localdomain</t>
   </si>
   <si>
@@ -189,15 +161,6 @@
     <t>2020-07-23T05:16:58 [VALIDATOR ]I: Finished Partitioning the Table : ORDER_ITEMS, Created : 709 partitions with time : 5260128 micros (table_partitioner.c:312)</t>
   </si>
   <si>
-    <t>5min 4sec</t>
-  </si>
-  <si>
-    <t>8min 40sec</t>
-  </si>
-  <si>
-    <t>Round</t>
-  </si>
-  <si>
     <t>3rd</t>
   </si>
   <si>
@@ -273,18 +236,6 @@
     <t>2020-07-23T05:38:04 [VALIDATOR ]I: Finished Partitioning the Table : ORDER_ITEMS, Created : 709 partitions with time : 3305723 micros (table_partitioner.c:312)</t>
   </si>
   <si>
-    <t>4min 53sec</t>
-  </si>
-  <si>
-    <t>8min 34sec</t>
-  </si>
-  <si>
-    <t>BinaryReader mode</t>
-  </si>
-  <si>
-    <t>Commit</t>
-  </si>
-  <si>
     <t>4th</t>
   </si>
   <si>
@@ -357,12 +308,6 @@
     <t>2020-07-23T05:53:07 [VALIDATOR ]I: Finished Partitioning the Table : ORDER_ITEMS, Created : 709 partitions with time : 5162763 micros (table_partitioner.c:312)</t>
   </si>
   <si>
-    <t>5min 11sec</t>
-  </si>
-  <si>
-    <t>8min 44sec</t>
-  </si>
-  <si>
     <t>2020-07-23T15:16:28.000+09:00</t>
   </si>
   <si>
@@ -435,58 +380,340 @@
     <t>5th</t>
   </si>
   <si>
-    <t>Parallel</t>
-  </si>
-  <si>
-    <t>2min 57sec</t>
-  </si>
-  <si>
-    <t>6min 25sec</t>
-  </si>
-  <si>
-    <t>GAP</t>
-  </si>
-  <si>
-    <t>9min 40sec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "FreshStartDate": "2020-07-23T16:03:10.734000+09:00",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "StartDate": "2020-07-23T16:03:10.734000+09:00",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "StopDate": "2020-07-23T16:09:35.777000+09:00",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "FullLoadStartDate": "2020-07-23T16:03:12.160000+09:00",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "FullLoadFinishDate": "2020-07-23T16:09:16.441000+09:00"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "FreshStartDate": "2020-07-23T16:16:31.324000+09:00",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "StartDate": "2020-07-23T16:16:31.324000+09:00",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "FullLoadStartDate": "2020-07-23T16:16:31.862000+09:00",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "FullLoadFinishDate": "2020-07-23T16:22:36.012000+09:00"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "FreshStartDate": "2020-07-23T16:29:49.404000+09:00",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "StartDate": "2020-07-23T16:29:49.404000+09:00",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "FullLoadStartDate": "2020-07-23T16:29:49.791000+09:00",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "FullLoadFinishDate": "2020-07-23T16:37:05.572000+09:00"</t>
+    <t>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values="</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>drop table soe.orders</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>2min 2sec</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FreshStartDate": "2020-07-24T00:57:18.140000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "StartDate": "2020-07-24T00:57:18.140000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "StopDate": "2020-07-24T01:01:03.160000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FullLoadStartDate": "2020-07-24T00:57:19.265000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FullLoadFinishDate": "2020-07-24T01:00:53.384000+09:00"</t>
+  </si>
+  <si>
+    <t>3min 34sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FreshStartDate": "2020-07-24T00:57:07.338000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "StartDate": "2020-07-24T00:57:07.338000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "StopDate": "2020-07-24T01:04:27.355000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FullLoadStartDate": "2020-07-24T00:57:08.344000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FullLoadFinishDate": "2020-07-24T01:03:52.502000+09:00"</t>
+  </si>
+  <si>
+    <t>6min 54sec</t>
+  </si>
+  <si>
+    <t>xlarge</t>
+  </si>
+  <si>
+    <t>arn:aws:dms:ap-northeast-2:664695030410:task:D5JZUIFSGNRYS3ITR4MZHX6B2QQAE3FFLCRWEQI</t>
+  </si>
+  <si>
+    <t>arn:aws:dms:ap-northeast-2:664695030410:task:4WC7B76RB6QT4Q6IN2U7MTB6DBTPI4UNM5EQQLQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FreshStartDate": "2020-07-24T09:45:56.855000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "StartDate": "2020-07-24T09:45:56.855000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "StopDate": "2020-07-24T09:48:11.899000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FullLoadStartDate": "2020-07-24T09:45:57.757000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FullLoadFinishDate": "2020-07-24T09:47:59.846000+09:00"</t>
+  </si>
+  <si>
+    <t>2xlarge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FreshStartDate": "2020-07-24T09:45:56.847000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "StartDate": "2020-07-24T09:45:56.847000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "StopDate": "2020-07-24T09:52:41.862000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FullLoadStartDate": "2020-07-24T09:45:57.697000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FullLoadFinishDate": "2020-07-24T09:52:06.306000+09:00"</t>
+  </si>
+  <si>
+    <t>6min 9sec</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</t>
   </si>
 </sst>
 </file>
@@ -535,11 +762,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCE9877-893A-1D46-9D52-1113C4D99907}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="B1:H30"/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A10" zoomScale="118" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -869,287 +1097,387 @@
     <col min="8" max="8" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>55</v>
-      </c>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2">
-        <v>1430862</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>7080325</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I14">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D15" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" t="s">
-        <v>136</v>
-      </c>
-      <c r="I18">
-        <v>10000</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D19" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" t="s">
-        <v>139</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE456C2-6854-EE43-8649-507819B4DFFE}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF04688-6CC3-BF46-AD10-3D7724A9194B}">
+  <dimension ref="A2:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="90.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="179.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="str">
+        <f>A2&amp;B2&amp;C2</f>
+        <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values="ABC"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D16" si="0">A3&amp;B3&amp;C3</f>
+        <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values="arn:aws:dms:ap-northeast-2:664695030410:task:4WC7B76RB6QT4Q6IN2U7MTB6DBTPI4UNM5EQQLQ"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values="arn:aws:dms:ap-northeast-2:664695030410:task:D5JZUIFSGNRYS3ITR4MZHX6B2QQAE3FFLCRWEQI"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values=""</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values=""</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values=""</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values=""</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values=""</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values=""</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values=""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values=""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values=""</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values=""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values=""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>"</v>
       </c>
     </row>
   </sheetData>
@@ -1158,6 +1486,1079 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE456C2-6854-EE43-8649-507819B4DFFE}">
+  <dimension ref="A2:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" t="str">
+        <f>A2&amp;B2&amp;C2</f>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;001 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D41" si="0">A3&amp;B3&amp;C3</f>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;002 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;003 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;004 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;005 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;006 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;007 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;008 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;009 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;010 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;011 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;012 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;013 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;014 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;015 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;016 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;017 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;018 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;019 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;020 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;021 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>225</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;022 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;023 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;024 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;025 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;026 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;027 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;028 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;029 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;030 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>225</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;031 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;032 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>225</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;033 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>225</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;034 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>225</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;035 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>225</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;036 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;037 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>225</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C39" t="s">
+        <v>227</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;038 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;039 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>225</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C41" t="s">
+        <v>227</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;040 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B7EDE6-99E0-AD45-B0F8-339844D8FDC7}">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" t="str">
+        <f>B1&amp;A1&amp;";"</f>
+        <v>drop table soe.orders05;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C36" si="0">B2&amp;A2&amp;";"</f>
+        <v>drop table soe.orders06;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders07;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders08;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders09;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders10;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders11;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders12;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders13;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders14;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders15;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders16;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders17;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders18;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders19;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders20;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders21;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders22;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders23;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders24;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders25;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders26;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders27;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders28;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders29;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders30;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders31;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders32;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders33;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders34;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders35;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders36;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders37;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders38;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders39;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>drop table soe.orders40;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F91EC2-7B3A-1E4D-9F46-EEB4777AB1F0}">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -1178,13 +2579,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1">
         <v>44035.177164351851</v>
@@ -1204,13 +2605,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1">
         <v>44035.180648148147</v>
@@ -1230,13 +2631,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1">
         <v>44035.184131944443</v>
@@ -1256,13 +2657,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
         <v>44035.187604166669</v>
@@ -1282,13 +2683,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>44035.177164351851</v>
@@ -1308,13 +2709,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>44035.180648148147</v>
@@ -1334,13 +2735,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1">
         <v>44035.183148148149</v>
@@ -1363,7 +2764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6378AC-B81D-B84E-B3E0-B8D0CDD5FD3B}">
   <dimension ref="A3:B102"/>
   <sheetViews>
@@ -1379,7 +2780,7 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -1464,502 +2865,502 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/DMS-Test-Result.xlsx
+++ b/DMS-Test-Result.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwony/Documents/GitHub/CloudFormation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441345D0-AD55-9B40-B618-1090B2EE5BA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE39275-07BC-9047-BED1-50D896AE7D3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{E807D598-975E-854F-9140-5D8B89E00547}"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{E807D598-975E-854F-9140-5D8B89E00547}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
-    <sheet name="Detail Log" sheetId="1" r:id="rId6"/>
+    <sheet name="CTAS" sheetId="4" r:id="rId3"/>
+    <sheet name="Index" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
+    <sheet name="Detail Log" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="296">
   <si>
     <t>2020-07-23T13:15:08.000+09:00</t>
   </si>
@@ -578,12 +580,6 @@
     <t>xlarge</t>
   </si>
   <si>
-    <t>arn:aws:dms:ap-northeast-2:664695030410:task:D5JZUIFSGNRYS3ITR4MZHX6B2QQAE3FFLCRWEQI</t>
-  </si>
-  <si>
-    <t>arn:aws:dms:ap-northeast-2:664695030410:task:4WC7B76RB6QT4Q6IN2U7MTB6DBTPI4UNM5EQQLQ</t>
-  </si>
-  <si>
     <t xml:space="preserve">                "FreshStartDate": "2020-07-24T09:45:56.855000+09:00",</t>
   </si>
   <si>
@@ -714,13 +710,223 @@
   </si>
   <si>
     <t xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</t>
+  </si>
+  <si>
+    <t>Create table soe.ORDERS</t>
+  </si>
+  <si>
+    <t>(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</t>
+  </si>
+  <si>
+    <t>create index orders</t>
+  </si>
+  <si>
+    <t>_idx on orders</t>
+  </si>
+  <si>
+    <t>LG Electronics</t>
+  </si>
+  <si>
+    <t>Oracle RMAN Incremental Backup Performance Issue in LGE GERP Migration POC</t>
+  </si>
+  <si>
+    <t>SpecReq</t>
+  </si>
+  <si>
+    <t>https://specreq.corp.amazon.com/view_request.html?id=5482cfed-5a0e-4121-ba29-f31f7e416a43</t>
+  </si>
+  <si>
+    <t>Pantosa</t>
+  </si>
+  <si>
+    <t>Training on DMS with HoL</t>
+  </si>
+  <si>
+    <t>https://specreq.corp.amazon.com/view_request.html?id=2fb3a7ca-2fb3-427c-8480-512080f961c4</t>
+  </si>
+  <si>
+    <t>Dongwon</t>
+  </si>
+  <si>
+    <t>https://specreq.corp.amazon.com/view_request.html?id=084c7ce5-6377-4535-8c10-4dc91d5d1e6b</t>
+  </si>
+  <si>
+    <t>TOSS</t>
+  </si>
+  <si>
+    <t>오라클에서 MySQL로 데이터 마이그레이션 시 고려 사항.</t>
+  </si>
+  <si>
+    <t>https://specreq.corp.amazon.com/view_request.html?id=b30c5804-b6a1-4ae7-ac2c-9a273e352e87</t>
+  </si>
+  <si>
+    <t>AMOREPACIFIC - Customer Data Platform</t>
+  </si>
+  <si>
+    <t>https://specreq.corp.amazon.com/view_request.html?id=1868c9ea-3fd1-43e5-951a-dc7eaa4b6ac1</t>
+  </si>
+  <si>
+    <t>Viva Republica (Toss) - DB Migration Phase#1</t>
+  </si>
+  <si>
+    <t>https://specreq.corp.amazon.com/view_request.html?id=17d22618-872f-4412-86de-b215e9a309ae</t>
+  </si>
+  <si>
+    <t>Coway - AWS Organization</t>
+  </si>
+  <si>
+    <t>https://specreq.corp.amazon.com/view_request.html?id=e7023b8b-9d43-4011-9c44-ac1beabcdd38</t>
+  </si>
+  <si>
+    <t>WoongJin Thinkbig AWS AI/ML adoption</t>
+  </si>
+  <si>
+    <t>https://specreq.corp.amazon.com/view_request.html?id=0b20eafb-ed9a-456b-8afb-6a0ed0b0a872</t>
+  </si>
+  <si>
+    <t>DongwonFnB_OnlineShopping mall migration</t>
+  </si>
+  <si>
+    <t>Dongwon F&amp;B</t>
+  </si>
+  <si>
+    <t>DongwonEnterprise building DR</t>
+  </si>
+  <si>
+    <t>Landing zone 시 Database와 DNS Forward 관련</t>
+  </si>
+  <si>
+    <t>KMS Key 삭제 후 EBS, RDS, Redsfhit 영향도</t>
+  </si>
+  <si>
+    <t>OnPrem Oracle EE to RDS Oracle 제약사항 및 고려사항</t>
+  </si>
+  <si>
+    <t>RAC to Oracle on EC2 DMS 동작 안함</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FreshStartDate": "2020-07-24T13:27:40.843000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "StartDate": "2020-07-24T13:27:40.843000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "StopDate": "2020-07-24T13:37:30.862000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FullLoadStartDate": "2020-07-24T13:27:41.707000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FullLoadFinishDate": "2020-07-24T13:37:01.137000+09:00"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FreshStartDate": "2020-07-24T13:27:40.840000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "StartDate": "2020-07-24T13:27:40.840000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "StopDate": "2020-07-24T13:31:30.862000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FullLoadStartDate": "2020-07-24T13:27:41.690000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FullLoadFinishDate": "2020-07-24T13:31:21.951000+09:00"</t>
+  </si>
+  <si>
+    <t>9min 20sec</t>
+  </si>
+  <si>
+    <t>3min 40sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FreshStartDate": "2020-07-24T13:54:48.186000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "StartDate": "2020-07-24T13:54:48.186000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "StopDate": "2020-07-24T13:58:38.211000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FullLoadStartDate": "2020-07-24T13:54:49.091000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FullLoadFinishDate": "2020-07-24T13:58:28.648000+09:00"</t>
+  </si>
+  <si>
+    <t>3min 39sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FreshStartDate": "2020-07-24T13:54:37.239000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "StartDate": "2020-07-24T13:54:37.239000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "StopDate": "2020-07-24T14:04:27.258000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FullLoadStartDate": "2020-07-24T13:54:38.123000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FullLoadFinishDate": "2020-07-24T14:04:11.629000+09:00"</t>
+  </si>
+  <si>
+    <t>9min 33ec</t>
+  </si>
+  <si>
+    <t>arn:aws:dms:ap-northeast-2:664695030410:task:DAHPVA7MBCZBI7S7JSGRLTQ3EOANKUBFKYD32BI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FreshStartDate": "2020-07-24T14:24:07.267000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "StartDate": "2020-07-24T14:24:07.267000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "StopDate": "2020-07-24T14:27:27.297000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FullLoadStartDate": "2020-07-24T14:24:08.146000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FullLoadFinishDate": "2020-07-24T14:26:57.297000+09:00"</t>
+  </si>
+  <si>
+    <t>2min 49sec</t>
+  </si>
+  <si>
+    <t>arn:aws:dms:ap-northeast-2:664695030410:task:45PA5546ZFYFVCXTE3ADZRASEDJRBQOS7BEGN3I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FreshStartDate": "2020-07-24T14:24:07.160000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "StartDate": "2020-07-24T14:24:07.160000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "StopDate": "2020-07-24T14:31:57.175000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FullLoadStartDate": "2020-07-24T14:24:08.006000+09:00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "FullLoadFinishDate": "2020-07-24T14:31:43.789000+09:00"</t>
+  </si>
+  <si>
+    <t>7min 7sec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -741,6 +947,36 @@
       <name val="Monaco"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -750,7 +986,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -758,18 +994,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1082,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCE9877-893A-1D46-9D52-1113C4D99907}">
-  <dimension ref="B1:H30"/>
+  <dimension ref="B1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="118" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="118" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1198,80 +1454,230 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F20" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+      <c r="E22" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" t="s">
+        <v>293</v>
+      </c>
+      <c r="I22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>193</v>
-      </c>
-      <c r="E22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>156</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="F28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>187</v>
       </c>
       <c r="E29" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>286</v>
+      </c>
+      <c r="I29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>188</v>
+        <v>186</v>
+      </c>
+      <c r="F30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>258</v>
+      </c>
+      <c r="F34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>259</v>
+      </c>
+      <c r="F35" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>260</v>
+      </c>
+      <c r="F36" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>261</v>
+      </c>
+      <c r="E37" t="s">
+        <v>268</v>
+      </c>
+      <c r="F37" t="s">
+        <v>279</v>
+      </c>
+      <c r="I37" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>262</v>
+      </c>
+      <c r="F38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>263</v>
+      </c>
+      <c r="F42" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>264</v>
+      </c>
+      <c r="F43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>265</v>
+      </c>
+      <c r="F44" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>266</v>
+      </c>
+      <c r="E45" t="s">
+        <v>269</v>
+      </c>
+      <c r="F45" t="s">
+        <v>273</v>
+      </c>
+      <c r="I45" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>267</v>
+      </c>
+      <c r="F46" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -1314,14 +1720,14 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>289</v>
       </c>
       <c r="C3" t="s">
         <v>118</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D16" si="0">A3&amp;B3&amp;C3</f>
-        <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values="arn:aws:dms:ap-northeast-2:664695030410:task:4WC7B76RB6QT4Q6IN2U7MTB6DBTPI4UNM5EQQLQ"</v>
+        <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values="arn:aws:dms:ap-northeast-2:664695030410:task:45PA5546ZFYFVCXTE3ADZRASEDJRBQOS7BEGN3I"</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1329,14 +1735,14 @@
         <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
         <v>118</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values="arn:aws:dms:ap-northeast-2:664695030410:task:D5JZUIFSGNRYS3ITR4MZHX6B2QQAE3FFLCRWEQI"</v>
+        <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values="arn:aws:dms:ap-northeast-2:664695030410:task:DAHPVA7MBCZBI7S7JSGRLTQ3EOANKUBFKYD32BI"</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1489,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE456C2-6854-EE43-8649-507819B4DFFE}">
   <dimension ref="A2:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1498,607 +1904,1348 @@
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="86.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="147.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D2" t="str">
         <f>A2&amp;B2&amp;C2</f>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;001 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+        <v>Create table soe.ORDERS001 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D41" si="0">A3&amp;B3&amp;C3</f>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;002 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+        <v>Create table soe.ORDERS002 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;003 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+        <v>Create table soe.ORDERS003 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;004 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+        <v>Create table soe.ORDERS004 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;005 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+        <v>Create table soe.ORDERS005 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;006 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+        <v>Create table soe.ORDERS006 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;007 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+        <v>Create table soe.ORDERS007 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;008 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+        <v>Create table soe.ORDERS008 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;009 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+        <v>Create table soe.ORDERS009 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;010 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+        <v>Create table soe.ORDERS010 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;011 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+        <v>Create table soe.ORDERS011 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;012 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+        <v>Create table soe.ORDERS012 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;013 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+        <v>Create table soe.ORDERS013 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>162</v>
       </c>
       <c r="C15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;014 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+        <v>Create table soe.ORDERS014 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;015 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+        <v>Create table soe.ORDERS015 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;016 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+        <v>Create table soe.ORDERS016 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;017 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+        <v>Create table soe.ORDERS017 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>166</v>
       </c>
       <c r="C19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;018 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+        <v>Create table soe.ORDERS018 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;019 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+        <v>Create table soe.ORDERS019 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>168</v>
       </c>
       <c r="C21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;020 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
+        <v>Create table soe.ORDERS020 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" t="s">
         <v>225</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22" t="s">
-        <v>227</v>
-      </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;021 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+        <v>Create table soe.ORDERS021 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" t="s">
         <v>225</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" t="s">
-        <v>227</v>
-      </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;022 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+        <v>Create table soe.ORDERS022 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" t="s">
         <v>225</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C24" t="s">
-        <v>227</v>
-      </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;023 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+        <v>Create table soe.ORDERS023 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" t="s">
         <v>225</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C25" t="s">
-        <v>227</v>
-      </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;024 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+        <v>Create table soe.ORDERS024 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" t="s">
         <v>225</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C26" t="s">
-        <v>227</v>
-      </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;025 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+        <v>Create table soe.ORDERS025 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" t="s">
         <v>225</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C27" t="s">
-        <v>227</v>
-      </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;026 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+        <v>Create table soe.ORDERS026 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" t="s">
         <v>225</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C28" t="s">
-        <v>227</v>
-      </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;027 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+        <v>Create table soe.ORDERS027 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>226</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" t="s">
         <v>225</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C29" t="s">
-        <v>227</v>
-      </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;028 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+        <v>Create table soe.ORDERS028 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" t="s">
         <v>225</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C30" t="s">
-        <v>227</v>
-      </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;029 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+        <v>Create table soe.ORDERS029 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>226</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" t="s">
         <v>225</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C31" t="s">
-        <v>227</v>
-      </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;030 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+        <v>Create table soe.ORDERS030 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>226</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" t="s">
         <v>225</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C32" t="s">
-        <v>227</v>
-      </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;031 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+        <v>Create table soe.ORDERS031 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" t="s">
         <v>225</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C33" t="s">
-        <v>227</v>
-      </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;032 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+        <v>Create table soe.ORDERS032 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>226</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" t="s">
         <v>225</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C34" t="s">
-        <v>227</v>
-      </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;033 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+        <v>Create table soe.ORDERS033 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>226</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" t="s">
         <v>225</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C35" t="s">
-        <v>227</v>
-      </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;034 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+        <v>Create table soe.ORDERS034 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>226</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" t="s">
         <v>225</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C36" t="s">
-        <v>227</v>
-      </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;035 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+        <v>Create table soe.ORDERS035 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>226</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" t="s">
         <v>225</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C37" t="s">
-        <v>227</v>
-      </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;036 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+        <v>Create table soe.ORDERS036 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C38" t="s">
         <v>225</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C38" t="s">
-        <v>227</v>
-      </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;037 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+        <v>Create table soe.ORDERS037 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>226</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C39" t="s">
         <v>225</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C39" t="s">
-        <v>227</v>
-      </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;038 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+        <v>Create table soe.ORDERS038 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>226</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" t="s">
         <v>225</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C40" t="s">
-        <v>227</v>
-      </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;039 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+        <v>Create table soe.ORDERS039 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>226</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" t="s">
         <v>225</v>
       </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>Create table soe.ORDERS040 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBABEC6-126D-2E4A-8AD2-7EF56BD92BE0}">
+  <dimension ref="A2:E41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="126.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" t="str">
+        <f>A2&amp;B2&amp;C2&amp;B2&amp;D2</f>
+        <v>create index orders001_idx on orders001(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E41" si="0">A3&amp;B3&amp;C3&amp;B3&amp;D3</f>
+        <v>create index orders002_idx on orders002(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders003_idx on orders003(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders004_idx on orders004(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders005_idx on orders005(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders006_idx on orders006(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders007_idx on orders007(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders008_idx on orders008(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders009_idx on orders009(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders010_idx on orders010(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders011_idx on orders011(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders012_idx on orders012(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders013_idx on orders013(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders014_idx on orders014(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders015_idx on orders015(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders016_idx on orders016(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders017_idx on orders017(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders018_idx on orders018(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D20" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders019_idx on orders019(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders020_idx on orders020(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" t="s">
+        <v>229</v>
+      </c>
+      <c r="D22" t="s">
+        <v>227</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders021_idx on orders021(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" t="s">
+        <v>227</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders022_idx on orders022(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D24" t="s">
+        <v>227</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders023_idx on orders023(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" t="s">
+        <v>229</v>
+      </c>
+      <c r="D25" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders024_idx on orders024(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" t="s">
+        <v>227</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders025_idx on orders025(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" t="s">
+        <v>227</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders026_idx on orders026(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>228</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders027_idx on orders027(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D29" t="s">
+        <v>227</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders028_idx on orders028(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" t="s">
+        <v>227</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders029_idx on orders029(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" t="s">
+        <v>227</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders030_idx on orders030(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>228</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D32" t="s">
+        <v>227</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders031_idx on orders031(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>228</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33" t="s">
+        <v>227</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders032_idx on orders032(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>228</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34" t="s">
+        <v>227</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders033_idx on orders033(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>228</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" t="s">
+        <v>227</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders034_idx on orders034(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>228</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D36" t="s">
+        <v>227</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders035_idx on orders035(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>228</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" t="s">
+        <v>229</v>
+      </c>
+      <c r="D37" t="s">
+        <v>227</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders036_idx on orders036(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>228</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C38" t="s">
+        <v>229</v>
+      </c>
+      <c r="D38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders037_idx on orders037(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C39" t="s">
+        <v>229</v>
+      </c>
+      <c r="D39" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders038_idx on orders038(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" t="s">
+        <v>227</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders039_idx on orders039(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>228</v>
+      </c>
       <c r="B41" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C41" t="s">
+        <v>229</v>
+      </c>
+      <c r="D41" t="s">
         <v>227</v>
       </c>
-      <c r="D41" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;040 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>create index orders040_idx on orders040(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
   </sheetData>
@@ -2106,7 +3253,149 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA010A0-0D46-5943-90DA-1063115ED1AD}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="51.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{63BA3E0C-830F-0A4D-9732-D975502DC654}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{F8EF81F9-2EEA-9D45-B955-F1219A39A5DB}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{F47DF6C4-EC41-464E-AC9E-801D21765546}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{DF32308B-A7F6-0646-BC80-D25F3AB62DF9}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{CC16D9BB-7B85-7D48-B820-5ED9441031FE}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{83A92A2F-5F32-A646-927E-FC8A20665F6C}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{2F497ABC-F83F-6245-BFAA-18220E1FD54D}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{4635BC86-F992-764F-AE10-E1A344B407EE}"/>
+    <hyperlink ref="D4" r:id="rId9" xr:uid="{A2454E87-8999-0448-B614-D1EF07544436}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B7EDE6-99E0-AD45-B0F8-339844D8FDC7}">
   <dimension ref="A1:C36"/>
   <sheetViews>
@@ -2558,7 +3847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F91EC2-7B3A-1E4D-9F46-EEB4777AB1F0}">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -2764,7 +4053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6378AC-B81D-B84E-B3E0-B8D0CDD5FD3B}">
   <dimension ref="A3:B102"/>
   <sheetViews>

--- a/DMS-Test-Result.xlsx
+++ b/DMS-Test-Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwony/Documents/GitHub/CloudFormation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE39275-07BC-9047-BED1-50D896AE7D3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515F1BAF-2343-5244-A52A-7E27C9C4E95A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{E807D598-975E-854F-9140-5D8B89E00547}"/>
+    <workbookView xWindow="14140" yWindow="740" windowWidth="35880" windowHeight="26240" xr2:uid="{E807D598-975E-854F-9140-5D8B89E00547}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1340,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCE9877-893A-1D46-9D52-1113C4D99907}">
   <dimension ref="B1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="118" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/DMS-Test-Result.xlsx
+++ b/DMS-Test-Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwony/Documents/GitHub/CloudFormation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515F1BAF-2343-5244-A52A-7E27C9C4E95A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3B0C37-0D19-1546-9247-7EE5EC1C907B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14140" yWindow="740" windowWidth="35880" windowHeight="26240" xr2:uid="{E807D598-975E-854F-9140-5D8B89E00547}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="300">
   <si>
     <t>2020-07-23T13:15:08.000+09:00</t>
   </si>
@@ -920,6 +920,18 @@
   </si>
   <si>
     <t>7min 7sec</t>
+  </si>
+  <si>
+    <t>8min 2sec</t>
+  </si>
+  <si>
+    <t>2min 15sec</t>
+  </si>
+  <si>
+    <t>5min 44sec</t>
+  </si>
+  <si>
+    <t>14min 54sec</t>
   </si>
 </sst>
 </file>
@@ -1338,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCE9877-893A-1D46-9D52-1113C4D99907}">
-  <dimension ref="B1:I46"/>
+  <dimension ref="B1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1454,7 +1466,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>158</v>
       </c>
@@ -1464,7 +1476,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>188</v>
       </c>
@@ -1474,7 +1486,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>189</v>
       </c>
@@ -1482,7 +1494,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>190</v>
       </c>
@@ -1490,7 +1502,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>191</v>
       </c>
@@ -1503,8 +1515,11 @@
       <c r="I22" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>192</v>
       </c>
@@ -1512,7 +1527,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>156</v>
       </c>
@@ -1520,7 +1535,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>182</v>
       </c>
@@ -1528,7 +1543,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>183</v>
       </c>
@@ -1536,7 +1551,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>184</v>
       </c>
@@ -1544,7 +1559,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>185</v>
       </c>
@@ -1557,8 +1572,11 @@
       <c r="I29" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>186</v>
       </c>
@@ -1566,7 +1584,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>158</v>
       </c>
@@ -1577,7 +1595,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>258</v>
       </c>
@@ -1585,7 +1603,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>259</v>
       </c>
@@ -1593,7 +1611,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>260</v>
       </c>
@@ -1601,7 +1619,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>261</v>
       </c>
@@ -1614,8 +1632,11 @@
       <c r="I37" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="K37" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>262</v>
       </c>
@@ -1623,7 +1644,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>158</v>
       </c>
@@ -1634,7 +1655,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>263</v>
       </c>
@@ -1642,7 +1663,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>264</v>
       </c>
@@ -1650,7 +1671,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>265</v>
       </c>
@@ -1658,7 +1679,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>266</v>
       </c>
@@ -1671,8 +1692,11 @@
       <c r="I45" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="K45" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>267</v>
       </c>

--- a/DMS-Test-Result.xlsx
+++ b/DMS-Test-Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwony/Documents/GitHub/CloudFormation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3B0C37-0D19-1546-9247-7EE5EC1C907B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7D9025-6836-EE45-B6CA-00E5BD171F7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14140" yWindow="740" windowWidth="35880" windowHeight="26240" xr2:uid="{E807D598-975E-854F-9140-5D8B89E00547}"/>
+    <workbookView xWindow="1280" yWindow="1740" windowWidth="35880" windowHeight="26240" xr2:uid="{E807D598-975E-854F-9140-5D8B89E00547}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="319">
   <si>
     <t>2020-07-23T13:15:08.000+09:00</t>
   </si>
@@ -932,13 +932,70 @@
   </si>
   <si>
     <t>14min 54sec</t>
+  </si>
+  <si>
+    <t>Load Parallel</t>
+  </si>
+  <si>
+    <t>Aurora with Index</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>No Index</t>
+  </si>
+  <si>
+    <t>With Index in Aurora</t>
+  </si>
+  <si>
+    <t>Migration Elapsed Time</t>
+  </si>
+  <si>
+    <t>2020-07-27T00:00:20 </t>
+  </si>
+  <si>
+    <t>2020-07-27T00:10:25</t>
+  </si>
+  <si>
+    <t>8min 5sec</t>
+  </si>
+  <si>
+    <t>2020-07-27T00:24:37</t>
+  </si>
+  <si>
+    <t>2020-07-27T00:27:01</t>
+  </si>
+  <si>
+    <t>2min 24sec</t>
+  </si>
+  <si>
+    <t>2020-07-27T00:37:55</t>
+  </si>
+  <si>
+    <t>2020-07-27T00:55:54</t>
+  </si>
+  <si>
+    <t>17min 59sec</t>
+  </si>
+  <si>
+    <t>RDS CPU Usage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -989,6 +1046,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="NanumGothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="NanumGothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF16191F"/>
+      <name val="Monaco"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -998,7 +1076,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1021,12 +1099,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1035,6 +1122,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1350,13 +1448,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCE9877-893A-1D46-9D52-1113C4D99907}">
-  <dimension ref="B1:K46"/>
+  <dimension ref="B1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="118" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
@@ -1365,7 +1463,7 @@
     <col min="8" max="8" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8">
       <c r="B1" t="s">
         <v>158</v>
       </c>
@@ -1373,23 +1471,23 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8">
       <c r="B2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8">
       <c r="B3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8">
       <c r="B4" t="s">
         <v>177</v>
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8">
       <c r="B5" t="s">
         <v>178</v>
       </c>
@@ -1398,7 +1496,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8">
       <c r="B6" t="s">
         <v>179</v>
       </c>
@@ -1406,23 +1504,23 @@
       <c r="E6" s="3"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8">
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8">
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8">
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8">
       <c r="B11" t="s">
         <v>156</v>
       </c>
@@ -1433,26 +1531,26 @@
       <c r="E11" s="3"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8">
       <c r="B12" t="s">
         <v>169</v>
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8">
       <c r="B13" t="s">
         <v>170</v>
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8">
       <c r="B14" t="s">
         <v>171</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8">
       <c r="B15" t="s">
         <v>172</v>
       </c>
@@ -1461,12 +1559,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8">
       <c r="B16" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13">
       <c r="B18" t="s">
         <v>158</v>
       </c>
@@ -1476,7 +1574,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13">
       <c r="B19" t="s">
         <v>188</v>
       </c>
@@ -1485,8 +1583,11 @@
       <c r="F19" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M19" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
       <c r="B20" t="s">
         <v>189</v>
       </c>
@@ -1494,15 +1595,18 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13">
       <c r="B21" t="s">
         <v>190</v>
       </c>
       <c r="F21" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
       <c r="B22" t="s">
         <v>191</v>
       </c>
@@ -1518,8 +1622,11 @@
       <c r="K22" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
       <c r="B23" t="s">
         <v>192</v>
       </c>
@@ -1527,7 +1634,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13">
       <c r="B25" t="s">
         <v>156</v>
       </c>
@@ -1535,7 +1642,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13">
       <c r="B26" t="s">
         <v>182</v>
       </c>
@@ -1543,23 +1650,29 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13">
       <c r="B27" t="s">
         <v>183</v>
       </c>
       <c r="F27" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
       <c r="B28" t="s">
         <v>184</v>
       </c>
       <c r="F28" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M28" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
       <c r="B29" t="s">
         <v>185</v>
       </c>
@@ -1575,8 +1688,11 @@
       <c r="K29" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
       <c r="B30" t="s">
         <v>186</v>
       </c>
@@ -1584,7 +1700,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13">
       <c r="B33" t="s">
         <v>158</v>
       </c>
@@ -1595,23 +1711,29 @@
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13">
       <c r="B34" t="s">
         <v>258</v>
       </c>
       <c r="F34" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M34" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
       <c r="B35" t="s">
         <v>259</v>
       </c>
       <c r="F35" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M35" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
       <c r="B36" t="s">
         <v>260</v>
       </c>
@@ -1619,7 +1741,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13">
       <c r="B37" t="s">
         <v>261</v>
       </c>
@@ -1635,8 +1757,11 @@
       <c r="K37" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M37" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
       <c r="B38" t="s">
         <v>262</v>
       </c>
@@ -1644,7 +1769,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13">
       <c r="B41" t="s">
         <v>158</v>
       </c>
@@ -1655,7 +1780,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13">
       <c r="B42" t="s">
         <v>263</v>
       </c>
@@ -1663,7 +1788,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13">
       <c r="B43" t="s">
         <v>264</v>
       </c>
@@ -1671,7 +1796,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13">
       <c r="B44" t="s">
         <v>265</v>
       </c>
@@ -1679,7 +1804,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13">
       <c r="B45" t="s">
         <v>266</v>
       </c>
@@ -1696,13 +1821,76 @@
         <v>298</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13">
       <c r="B46" t="s">
         <v>267</v>
       </c>
       <c r="F46" t="s">
         <v>274</v>
       </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="8"/>
+      <c r="C57" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C58" s="10">
+        <v>2</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="E58" s="10"/>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C59" s="10">
+        <v>16</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="E59" s="10"/>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C60" s="10">
+        <v>2</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E60" s="10"/>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C61" s="10">
+        <v>16</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E61" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1718,13 +1906,13 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="90.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="179.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -1739,7 +1927,7 @@
         <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values="ABC"</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -1754,7 +1942,7 @@
         <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values="arn:aws:dms:ap-northeast-2:664695030410:task:45PA5546ZFYFVCXTE3ADZRASEDJRBQOS7BEGN3I"</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -1769,7 +1957,7 @@
         <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values="arn:aws:dms:ap-northeast-2:664695030410:task:DAHPVA7MBCZBI7S7JSGRLTQ3EOANKUBFKYD32BI"</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -1781,7 +1969,7 @@
         <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values=""</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -1793,7 +1981,7 @@
         <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values=""</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -1805,7 +1993,7 @@
         <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values=""</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -1817,7 +2005,7 @@
         <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values=""</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -1829,7 +2017,7 @@
         <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values=""</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -1841,7 +2029,7 @@
         <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values=""</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -1853,7 +2041,7 @@
         <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values=""</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -1865,7 +2053,7 @@
         <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values=""</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -1877,7 +2065,7 @@
         <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values=""</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -1889,7 +2077,7 @@
         <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values=""</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -1901,7 +2089,7 @@
         <v>aws --region ap-northeast-2 dms describe-replication-tasks --filters Name="replication-task-arn",Values=""</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="C16" t="s">
         <v>118</v>
       </c>
@@ -1923,7 +2111,7 @@
       <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
@@ -1931,7 +2119,7 @@
     <col min="4" max="4" width="147.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>226</v>
       </c>
@@ -1946,7 +2134,7 @@
         <v>Create table soe.ORDERS001 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>226</v>
       </c>
@@ -1961,7 +2149,7 @@
         <v>Create table soe.ORDERS002 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>226</v>
       </c>
@@ -1976,7 +2164,7 @@
         <v>Create table soe.ORDERS003 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>226</v>
       </c>
@@ -1991,7 +2179,7 @@
         <v>Create table soe.ORDERS004 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>226</v>
       </c>
@@ -2006,7 +2194,7 @@
         <v>Create table soe.ORDERS005 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>226</v>
       </c>
@@ -2021,7 +2209,7 @@
         <v>Create table soe.ORDERS006 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>226</v>
       </c>
@@ -2036,7 +2224,7 @@
         <v>Create table soe.ORDERS007 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>226</v>
       </c>
@@ -2051,7 +2239,7 @@
         <v>Create table soe.ORDERS008 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>226</v>
       </c>
@@ -2066,7 +2254,7 @@
         <v>Create table soe.ORDERS009 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>226</v>
       </c>
@@ -2081,7 +2269,7 @@
         <v>Create table soe.ORDERS010 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>226</v>
       </c>
@@ -2096,7 +2284,7 @@
         <v>Create table soe.ORDERS011 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>226</v>
       </c>
@@ -2111,7 +2299,7 @@
         <v>Create table soe.ORDERS012 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>226</v>
       </c>
@@ -2126,7 +2314,7 @@
         <v>Create table soe.ORDERS013 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>226</v>
       </c>
@@ -2141,7 +2329,7 @@
         <v>Create table soe.ORDERS014 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>226</v>
       </c>
@@ -2156,7 +2344,7 @@
         <v>Create table soe.ORDERS015 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>226</v>
       </c>
@@ -2171,7 +2359,7 @@
         <v>Create table soe.ORDERS016 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>226</v>
       </c>
@@ -2186,7 +2374,7 @@
         <v>Create table soe.ORDERS017 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>226</v>
       </c>
@@ -2201,7 +2389,7 @@
         <v>Create table soe.ORDERS018 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>226</v>
       </c>
@@ -2216,7 +2404,7 @@
         <v>Create table soe.ORDERS019 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -2231,7 +2419,7 @@
         <v>Create table soe.ORDERS020 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a;</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>226</v>
       </c>
@@ -2246,7 +2434,7 @@
         <v>Create table soe.ORDERS021 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>226</v>
       </c>
@@ -2261,7 +2449,7 @@
         <v>Create table soe.ORDERS022 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>226</v>
       </c>
@@ -2276,7 +2464,7 @@
         <v>Create table soe.ORDERS023 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>226</v>
       </c>
@@ -2291,7 +2479,7 @@
         <v>Create table soe.ORDERS024 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>226</v>
       </c>
@@ -2306,7 +2494,7 @@
         <v>Create table soe.ORDERS025 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>226</v>
       </c>
@@ -2321,7 +2509,7 @@
         <v>Create table soe.ORDERS026 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -2336,7 +2524,7 @@
         <v>Create table soe.ORDERS027 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>226</v>
       </c>
@@ -2351,7 +2539,7 @@
         <v>Create table soe.ORDERS028 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>226</v>
       </c>
@@ -2366,7 +2554,7 @@
         <v>Create table soe.ORDERS029 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>226</v>
       </c>
@@ -2381,7 +2569,7 @@
         <v>Create table soe.ORDERS030 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>226</v>
       </c>
@@ -2396,7 +2584,7 @@
         <v>Create table soe.ORDERS031 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>226</v>
       </c>
@@ -2411,7 +2599,7 @@
         <v>Create table soe.ORDERS032 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>226</v>
       </c>
@@ -2426,7 +2614,7 @@
         <v>Create table soe.ORDERS033 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>226</v>
       </c>
@@ -2441,7 +2629,7 @@
         <v>Create table soe.ORDERS034 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>226</v>
       </c>
@@ -2456,7 +2644,7 @@
         <v>Create table soe.ORDERS035 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>226</v>
       </c>
@@ -2471,7 +2659,7 @@
         <v>Create table soe.ORDERS036 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>226</v>
       </c>
@@ -2486,7 +2674,7 @@
         <v>Create table soe.ORDERS037 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>226</v>
       </c>
@@ -2501,7 +2689,7 @@
         <v>Create table soe.ORDERS038 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>226</v>
       </c>
@@ -2516,7 +2704,7 @@
         <v>Create table soe.ORDERS039 UNRECOVERABLE as select /*+  parallel (a 16) */ * from soe.ORDERS a where rownum&lt;200000;</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>226</v>
       </c>
@@ -2545,14 +2733,14 @@
       <selection activeCell="E2" sqref="E2:E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="126.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>228</v>
       </c>
@@ -2570,7 +2758,7 @@
         <v>create index orders001_idx on orders001(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>228</v>
       </c>
@@ -2588,7 +2776,7 @@
         <v>create index orders002_idx on orders002(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>228</v>
       </c>
@@ -2606,7 +2794,7 @@
         <v>create index orders003_idx on orders003(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>228</v>
       </c>
@@ -2624,7 +2812,7 @@
         <v>create index orders004_idx on orders004(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>228</v>
       </c>
@@ -2642,7 +2830,7 @@
         <v>create index orders005_idx on orders005(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>228</v>
       </c>
@@ -2660,7 +2848,7 @@
         <v>create index orders006_idx on orders006(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>228</v>
       </c>
@@ -2678,7 +2866,7 @@
         <v>create index orders007_idx on orders007(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>228</v>
       </c>
@@ -2696,7 +2884,7 @@
         <v>create index orders008_idx on orders008(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>228</v>
       </c>
@@ -2714,7 +2902,7 @@
         <v>create index orders009_idx on orders009(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>228</v>
       </c>
@@ -2732,7 +2920,7 @@
         <v>create index orders010_idx on orders010(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>228</v>
       </c>
@@ -2750,7 +2938,7 @@
         <v>create index orders011_idx on orders011(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>228</v>
       </c>
@@ -2768,7 +2956,7 @@
         <v>create index orders012_idx on orders012(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>228</v>
       </c>
@@ -2786,7 +2974,7 @@
         <v>create index orders013_idx on orders013(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>228</v>
       </c>
@@ -2804,7 +2992,7 @@
         <v>create index orders014_idx on orders014(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>228</v>
       </c>
@@ -2822,7 +3010,7 @@
         <v>create index orders015_idx on orders015(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>228</v>
       </c>
@@ -2840,7 +3028,7 @@
         <v>create index orders016_idx on orders016(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>228</v>
       </c>
@@ -2858,7 +3046,7 @@
         <v>create index orders017_idx on orders017(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>228</v>
       </c>
@@ -2876,7 +3064,7 @@
         <v>create index orders018_idx on orders018(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>228</v>
       </c>
@@ -2894,7 +3082,7 @@
         <v>create index orders019_idx on orders019(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>228</v>
       </c>
@@ -2912,7 +3100,7 @@
         <v>create index orders020_idx on orders020(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>228</v>
       </c>
@@ -2930,7 +3118,7 @@
         <v>create index orders021_idx on orders021(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>228</v>
       </c>
@@ -2948,7 +3136,7 @@
         <v>create index orders022_idx on orders022(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>228</v>
       </c>
@@ -2966,7 +3154,7 @@
         <v>create index orders023_idx on orders023(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>228</v>
       </c>
@@ -2984,7 +3172,7 @@
         <v>create index orders024_idx on orders024(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>228</v>
       </c>
@@ -3002,7 +3190,7 @@
         <v>create index orders025_idx on orders025(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>228</v>
       </c>
@@ -3020,7 +3208,7 @@
         <v>create index orders026_idx on orders026(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>228</v>
       </c>
@@ -3038,7 +3226,7 @@
         <v>create index orders027_idx on orders027(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>228</v>
       </c>
@@ -3056,7 +3244,7 @@
         <v>create index orders028_idx on orders028(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>228</v>
       </c>
@@ -3074,7 +3262,7 @@
         <v>create index orders029_idx on orders029(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>228</v>
       </c>
@@ -3092,7 +3280,7 @@
         <v>create index orders030_idx on orders030(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>228</v>
       </c>
@@ -3110,7 +3298,7 @@
         <v>create index orders031_idx on orders031(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>228</v>
       </c>
@@ -3128,7 +3316,7 @@
         <v>create index orders032_idx on orders032(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>228</v>
       </c>
@@ -3146,7 +3334,7 @@
         <v>create index orders033_idx on orders033(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>228</v>
       </c>
@@ -3164,7 +3352,7 @@
         <v>create index orders034_idx on orders034(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>228</v>
       </c>
@@ -3182,7 +3370,7 @@
         <v>create index orders035_idx on orders035(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>228</v>
       </c>
@@ -3200,7 +3388,7 @@
         <v>create index orders036_idx on orders036(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>228</v>
       </c>
@@ -3218,7 +3406,7 @@
         <v>create index orders037_idx on orders037(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>228</v>
       </c>
@@ -3236,7 +3424,7 @@
         <v>create index orders038_idx on orders038(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>228</v>
       </c>
@@ -3254,7 +3442,7 @@
         <v>create index orders039_idx on orders039(ORDER_ID, CUSTOMER_ID, ORDER_DATE, SALES_REP_ID, WAREHOUSE_ID, ORDER_STATUS);</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>228</v>
       </c>
@@ -3285,7 +3473,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="51.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.83203125" bestFit="1" customWidth="1"/>
@@ -3293,7 +3481,7 @@
     <col min="4" max="4" width="85.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
         <v>230</v>
       </c>
@@ -3307,7 +3495,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
         <v>234</v>
       </c>
@@ -3319,7 +3507,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
         <v>237</v>
       </c>
@@ -3331,7 +3519,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
         <v>251</v>
       </c>
@@ -3343,7 +3531,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>239</v>
       </c>
@@ -3355,7 +3543,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
         <v>242</v>
       </c>
@@ -3367,7 +3555,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
         <v>244</v>
       </c>
@@ -3379,7 +3567,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="7" t="s">
         <v>246</v>
       </c>
@@ -3391,7 +3579,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
         <v>248</v>
       </c>
@@ -3427,13 +3615,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
         <v>119</v>
       </c>
@@ -3445,7 +3633,7 @@
         <v>drop table soe.orders05;</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>120</v>
       </c>
@@ -3457,7 +3645,7 @@
         <v>drop table soe.orders06;</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>121</v>
       </c>
@@ -3469,7 +3657,7 @@
         <v>drop table soe.orders07;</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>122</v>
       </c>
@@ -3481,7 +3669,7 @@
         <v>drop table soe.orders08;</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>123</v>
       </c>
@@ -3493,7 +3681,7 @@
         <v>drop table soe.orders09;</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>124</v>
       </c>
@@ -3505,7 +3693,7 @@
         <v>drop table soe.orders10;</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>125</v>
       </c>
@@ -3517,7 +3705,7 @@
         <v>drop table soe.orders11;</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>126</v>
       </c>
@@ -3529,7 +3717,7 @@
         <v>drop table soe.orders12;</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>127</v>
       </c>
@@ -3541,7 +3729,7 @@
         <v>drop table soe.orders13;</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
         <v>128</v>
       </c>
@@ -3553,7 +3741,7 @@
         <v>drop table soe.orders14;</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
         <v>129</v>
       </c>
@@ -3565,7 +3753,7 @@
         <v>drop table soe.orders15;</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
         <v>130</v>
       </c>
@@ -3577,7 +3765,7 @@
         <v>drop table soe.orders16;</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
         <v>131</v>
       </c>
@@ -3589,7 +3777,7 @@
         <v>drop table soe.orders17;</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
         <v>132</v>
       </c>
@@ -3601,7 +3789,7 @@
         <v>drop table soe.orders18;</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
         <v>133</v>
       </c>
@@ -3613,7 +3801,7 @@
         <v>drop table soe.orders19;</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
         <v>134</v>
       </c>
@@ -3625,7 +3813,7 @@
         <v>drop table soe.orders20;</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
         <v>135</v>
       </c>
@@ -3637,7 +3825,7 @@
         <v>drop table soe.orders21;</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
         <v>136</v>
       </c>
@@ -3649,7 +3837,7 @@
         <v>drop table soe.orders22;</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
         <v>137</v>
       </c>
@@ -3661,7 +3849,7 @@
         <v>drop table soe.orders23;</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
         <v>138</v>
       </c>
@@ -3673,7 +3861,7 @@
         <v>drop table soe.orders24;</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
         <v>139</v>
       </c>
@@ -3685,7 +3873,7 @@
         <v>drop table soe.orders25;</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
         <v>140</v>
       </c>
@@ -3697,7 +3885,7 @@
         <v>drop table soe.orders26;</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
         <v>141</v>
       </c>
@@ -3709,7 +3897,7 @@
         <v>drop table soe.orders27;</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
         <v>142</v>
       </c>
@@ -3721,7 +3909,7 @@
         <v>drop table soe.orders28;</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
         <v>143</v>
       </c>
@@ -3733,7 +3921,7 @@
         <v>drop table soe.orders29;</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
         <v>144</v>
       </c>
@@ -3745,7 +3933,7 @@
         <v>drop table soe.orders30;</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
         <v>145</v>
       </c>
@@ -3757,7 +3945,7 @@
         <v>drop table soe.orders31;</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
         <v>146</v>
       </c>
@@ -3769,7 +3957,7 @@
         <v>drop table soe.orders32;</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
         <v>147</v>
       </c>
@@ -3781,7 +3969,7 @@
         <v>drop table soe.orders33;</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
         <v>148</v>
       </c>
@@ -3793,7 +3981,7 @@
         <v>drop table soe.orders34;</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
         <v>149</v>
       </c>
@@ -3805,7 +3993,7 @@
         <v>drop table soe.orders35;</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
         <v>150</v>
       </c>
@@ -3817,7 +4005,7 @@
         <v>drop table soe.orders36;</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
         <v>151</v>
       </c>
@@ -3829,7 +4017,7 @@
         <v>drop table soe.orders37;</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
         <v>152</v>
       </c>
@@ -3841,7 +4029,7 @@
         <v>drop table soe.orders38;</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
         <v>153</v>
       </c>
@@ -3853,7 +4041,7 @@
         <v>drop table soe.orders39;</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
         <v>154</v>
       </c>
@@ -3879,7 +4067,7 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="27.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="27.33203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
@@ -3890,7 +4078,7 @@
     <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3916,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3942,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3968,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3994,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -4020,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -4046,7 +4234,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4085,103 +4273,103 @@
       <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="41.83203125" customWidth="1"/>
     <col min="2" max="2" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="18">
       <c r="A33" s="2" t="s">
         <v>18</v>
       </c>
@@ -4189,7 +4377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
         <v>20</v>
       </c>
@@ -4197,7 +4385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
         <v>20</v>
       </c>
@@ -4205,7 +4393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
         <v>20</v>
       </c>
@@ -4213,7 +4401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>20</v>
       </c>
@@ -4221,7 +4409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>25</v>
       </c>
@@ -4229,7 +4417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
         <v>25</v>
       </c>
@@ -4237,7 +4425,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
         <v>28</v>
       </c>
@@ -4245,7 +4433,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
         <v>30</v>
       </c>
@@ -4253,7 +4441,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
         <v>32</v>
       </c>
@@ -4261,7 +4449,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
         <v>34</v>
       </c>
@@ -4269,7 +4457,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
         <v>34</v>
       </c>
@@ -4277,7 +4465,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
         <v>37</v>
       </c>
@@ -4285,7 +4473,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="3" t="s">
         <v>39</v>
       </c>
@@ -4293,7 +4481,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
@@ -4301,12 +4489,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="18">
       <c r="A52" s="2" t="s">
         <v>18</v>
       </c>
@@ -4314,7 +4502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>44</v>
       </c>
@@ -4322,7 +4510,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>44</v>
       </c>
@@ -4330,7 +4518,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
         <v>47</v>
       </c>
@@ -4338,7 +4526,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
         <v>47</v>
       </c>
@@ -4346,7 +4534,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
         <v>50</v>
       </c>
@@ -4354,7 +4542,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
         <v>50</v>
       </c>
@@ -4362,7 +4550,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" s="3" t="s">
         <v>53</v>
       </c>
@@ -4370,7 +4558,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" s="3" t="s">
         <v>55</v>
       </c>
@@ -4378,7 +4566,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>57</v>
       </c>
@@ -4386,7 +4574,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
         <v>59</v>
       </c>
@@ -4394,7 +4582,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" s="3" t="s">
         <v>59</v>
       </c>
@@ -4402,7 +4590,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" s="3" t="s">
         <v>62</v>
       </c>
@@ -4410,7 +4598,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
@@ -4418,7 +4606,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
         <v>66</v>
       </c>
@@ -4426,12 +4614,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="18">
       <c r="A70" s="2" t="s">
         <v>18</v>
       </c>
@@ -4439,7 +4627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" s="3" t="s">
         <v>69</v>
       </c>
@@ -4447,7 +4635,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" s="3" t="s">
         <v>69</v>
       </c>
@@ -4455,7 +4643,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" s="3" t="s">
         <v>69</v>
       </c>
@@ -4463,7 +4651,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" s="3" t="s">
         <v>69</v>
       </c>
@@ -4471,7 +4659,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
@@ -4479,7 +4667,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" s="3" t="s">
         <v>74</v>
       </c>
@@ -4487,7 +4675,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" s="3" t="s">
         <v>77</v>
       </c>
@@ -4495,7 +4683,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
@@ -4503,7 +4691,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" s="3" t="s">
         <v>81</v>
       </c>
@@ -4511,7 +4699,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" s="3" t="s">
         <v>83</v>
       </c>
@@ -4519,7 +4707,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81" s="3" t="s">
         <v>83</v>
       </c>
@@ -4527,7 +4715,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" s="3" t="s">
         <v>86</v>
       </c>
@@ -4535,7 +4723,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" s="3" t="s">
         <v>88</v>
       </c>
@@ -4543,7 +4731,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" s="3" t="s">
         <v>90</v>
       </c>
@@ -4551,12 +4739,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="18">
       <c r="A88" s="2" t="s">
         <v>18</v>
       </c>
@@ -4564,7 +4752,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" s="3" t="s">
         <v>92</v>
       </c>
@@ -4572,7 +4760,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90" s="3" t="s">
         <v>92</v>
       </c>
@@ -4580,7 +4768,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91" s="3" t="s">
         <v>95</v>
       </c>
@@ -4588,7 +4776,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92" s="3" t="s">
         <v>95</v>
       </c>
@@ -4596,7 +4784,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93" s="3" t="s">
         <v>98</v>
       </c>
@@ -4604,7 +4792,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94" s="3" t="s">
         <v>98</v>
       </c>
@@ -4612,7 +4800,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95" s="3" t="s">
         <v>98</v>
       </c>
@@ -4620,7 +4808,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96" s="3" t="s">
         <v>102</v>
       </c>
@@ -4628,7 +4816,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97" s="3" t="s">
         <v>104</v>
       </c>
@@ -4636,7 +4824,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98" s="3" t="s">
         <v>106</v>
       </c>
@@ -4644,7 +4832,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99" s="3" t="s">
         <v>106</v>
       </c>
@@ -4652,7 +4840,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100" s="3" t="s">
         <v>109</v>
       </c>
@@ -4660,7 +4848,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101" s="3" t="s">
         <v>111</v>
       </c>
@@ -4668,7 +4856,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102" s="3" t="s">
         <v>113</v>
       </c>

--- a/DMS-Test-Result.xlsx
+++ b/DMS-Test-Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwony/Documents/GitHub/CloudFormation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7D9025-6836-EE45-B6CA-00E5BD171F7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DCFF63-75C4-0144-B9CD-8B2F95AB3C46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="1740" windowWidth="35880" windowHeight="26240" xr2:uid="{E807D598-975E-854F-9140-5D8B89E00547}"/>
+    <workbookView xWindow="34920" yWindow="460" windowWidth="33880" windowHeight="28340" xr2:uid="{E807D598-975E-854F-9140-5D8B89E00547}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="325">
   <si>
     <t>2020-07-23T13:15:08.000+09:00</t>
   </si>
@@ -958,9 +958,6 @@
     <t>With Index in Aurora</t>
   </si>
   <si>
-    <t>Migration Elapsed Time</t>
-  </si>
-  <si>
     <t>2020-07-27T00:00:20 </t>
   </si>
   <si>
@@ -988,7 +985,28 @@
     <t>17min 59sec</t>
   </si>
   <si>
-    <t>RDS CPU Usage</t>
+    <t># of Index : 1</t>
+  </si>
+  <si>
+    <t># of Index : 6</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>2x</t>
+  </si>
+  <si>
+    <t>4x</t>
+  </si>
+  <si>
+    <t>8x</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1094,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1097,15 +1115,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1130,7 +1139,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1448,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCE9877-893A-1D46-9D52-1113C4D99907}">
-  <dimension ref="B1:M61"/>
+  <dimension ref="B1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="118" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="118" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1584,7 +1593,7 @@
         <v>290</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="2:13">
@@ -1603,7 +1612,7 @@
         <v>292</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="2:13">
@@ -1623,7 +1632,7 @@
         <v>296</v>
       </c>
       <c r="M22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="2:13">
@@ -1658,7 +1667,7 @@
         <v>284</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="2:13">
@@ -1669,7 +1678,7 @@
         <v>285</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="2:13">
@@ -1689,7 +1698,7 @@
         <v>297</v>
       </c>
       <c r="M29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="2:13">
@@ -1719,7 +1728,7 @@
         <v>276</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="2:13">
@@ -1730,7 +1739,7 @@
         <v>277</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="2:13">
@@ -1758,7 +1767,7 @@
         <v>299</v>
       </c>
       <c r="M37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="2:13">
@@ -1838,10 +1847,10 @@
         <v>301</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58" spans="2:6">
@@ -1854,7 +1863,12 @@
       <c r="D58" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="E58" s="10"/>
+      <c r="E58" t="s">
+        <v>296</v>
+      </c>
+      <c r="F58" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="9" t="s">
@@ -1866,7 +1880,12 @@
       <c r="D59" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="E59" s="10"/>
+      <c r="E59" t="s">
+        <v>297</v>
+      </c>
+      <c r="F59" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="9" t="s">
@@ -1878,7 +1897,12 @@
       <c r="D60" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E60" s="10"/>
+      <c r="E60" t="s">
+        <v>299</v>
+      </c>
+      <c r="F60" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="9" t="s">
@@ -1890,7 +1914,53 @@
       <c r="D61" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E61" s="10"/>
+      <c r="E61" t="s">
+        <v>298</v>
+      </c>
+      <c r="F61" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" t="s">
+        <v>319</v>
+      </c>
+      <c r="C68" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" t="s">
+        <v>320</v>
+      </c>
+      <c r="E68" t="s">
+        <v>321</v>
+      </c>
+      <c r="F68">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="E69" t="s">
+        <v>322</v>
+      </c>
+      <c r="F69">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="E70" t="s">
+        <v>323</v>
+      </c>
+      <c r="F70">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="E71" t="s">
+        <v>324</v>
+      </c>
+      <c r="F71">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
